--- a/data/trans_camb/PCS12_SP_R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 5,76</t>
+          <t>-3,21; 5,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 6,2</t>
+          <t>-2,47; 6,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,82</t>
+          <t>-2,36; 6,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 3,38</t>
+          <t>-8,73; 3,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 3,63</t>
+          <t>-9,6; 2,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 7,21</t>
+          <t>-4,01; 6,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 3,53</t>
+          <t>-4,13; 3,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 3,58</t>
+          <t>-3,45; 3,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 5,19</t>
+          <t>-1,39; 5,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 56,72</t>
+          <t>-23,92; 58,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,11; 65,73</t>
+          <t>-18,81; 66,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 60,7</t>
+          <t>-17,43; 62,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,82; 23,53</t>
+          <t>-42,24; 22,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,53; 26,49</t>
+          <t>-43,48; 20,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 49,84</t>
+          <t>-18,68; 46,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-24,0; 27,31</t>
+          <t>-25,57; 29,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 27,13</t>
+          <t>-21,77; 30,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 41,22</t>
+          <t>-8,57; 43,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 11,1</t>
+          <t>1,55; 10,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,92</t>
+          <t>-2,15; 6,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 13,33</t>
+          <t>4,18; 13,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 6,99</t>
+          <t>-3,87; 7,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 6,74</t>
+          <t>-3,65; 6,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 13,37</t>
+          <t>3,31; 13,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 7,75</t>
+          <t>0,27; 7,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 5,22</t>
+          <t>-1,88; 5,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 11,56</t>
+          <t>4,99; 11,88</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 162,77</t>
+          <t>14,9; 157,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 107,24</t>
+          <t>-19,99; 97,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,34; 190,35</t>
+          <t>30,89; 202,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 66,54</t>
+          <t>-26,1; 70,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 62,71</t>
+          <t>-25,33; 65,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,87; 128,43</t>
+          <t>21,48; 133,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 86,47</t>
+          <t>1,13; 79,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 58,52</t>
+          <t>-14,49; 59,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>38,75; 124,08</t>
+          <t>37,66; 129,25</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,75</t>
+          <t>1,23; 10,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 7,14</t>
+          <t>-1,87; 7,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 67,88</t>
+          <t>8,08; 68,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 10,68</t>
+          <t>-7,47; 11,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 12,34</t>
+          <t>-8,31; 13,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 21,6</t>
+          <t>3,31; 21,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 9,54</t>
+          <t>1,11; 9,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 7,28</t>
+          <t>-1,41; 6,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,07; 60,78</t>
+          <t>9,53; 59,84</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 75,83</t>
+          <t>6,1; 76,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 50,13</t>
+          <t>-9,85; 55,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,31; 497,35</t>
+          <t>50,54; 498,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 48,87</t>
+          <t>-22,49; 51,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 54,93</t>
+          <t>-25,54; 58,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,73; 97,48</t>
+          <t>10,17; 98,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 56,93</t>
+          <t>5,03; 57,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 42,13</t>
+          <t>-7,19; 42,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,06; 362,47</t>
+          <t>49,91; 366,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,07</t>
+          <t>-3,06; 3,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 1,58</t>
+          <t>-4,79; 1,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 9,22</t>
+          <t>1,96; 9,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 1,88</t>
+          <t>-6,94; 1,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,79</t>
+          <t>-7,84; 0,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 5,2</t>
+          <t>-13,37; 5,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 1,85</t>
+          <t>-3,82; 1,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 0,39</t>
+          <t>-4,93; 0,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 6,0</t>
+          <t>-4,97; 6,02</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 15,94</t>
+          <t>-13,75; 19,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 8,17</t>
+          <t>-21,54; 8,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,33; 47,11</t>
+          <t>8,88; 47,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 9,1</t>
+          <t>-27,36; 8,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 3,77</t>
+          <t>-31,09; 4,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 23,75</t>
+          <t>-53,71; 24,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 9,31</t>
+          <t>-17,0; 8,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 1,98</t>
+          <t>-21,61; 1,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 28,95</t>
+          <t>-21,86; 28,38</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 5,01</t>
+          <t>-5,41; 5,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 7,31</t>
+          <t>-2,68; 7,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,02; 14,44</t>
+          <t>3,03; 14,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,15; 14,9</t>
+          <t>4,34; 15,79</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,13</t>
+          <t>-0,59; 9,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 13,5</t>
+          <t>-3,58; 13,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 9,5</t>
+          <t>1,66; 9,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 6,99</t>
+          <t>-0,27; 7,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 12,09</t>
+          <t>1,36; 12,15</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-27,4; 31,13</t>
+          <t>-24,17; 34,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 44,49</t>
+          <t>-12,26; 45,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>13,18; 87,01</t>
+          <t>13,2; 90,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>13,72; 59,12</t>
+          <t>14,05; 61,6</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 35,63</t>
+          <t>-1,92; 37,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 52,08</t>
+          <t>-8,76; 49,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,23; 42,0</t>
+          <t>6,31; 42,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 31,35</t>
+          <t>-1,03; 32,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>7,29; 53,44</t>
+          <t>6,46; 52,16</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 4,12</t>
+          <t>-2,73; 4,17</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 1,55</t>
+          <t>-4,15; 1,58</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 3,97</t>
+          <t>-2,91; 3,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 5,85</t>
+          <t>-2,29; 5,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,43</t>
+          <t>-6,28; 2,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,58</t>
+          <t>-3,87; 4,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 4,66</t>
+          <t>-2,0; 4,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 0,74</t>
+          <t>-6,19; 0,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 2,15</t>
+          <t>-4,99; 2,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-51,07; 191,29</t>
+          <t>-52,49; 168,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-79,39; 82,45</t>
+          <t>-80,44; 72,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 158,46</t>
+          <t>-57,02; 173,48</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 17,57</t>
+          <t>-6,3; 16,19</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 4,41</t>
+          <t>-16,72; 6,17</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 13,44</t>
+          <t>-10,1; 13,44</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 16,69</t>
+          <t>-6,33; 17,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 2,54</t>
+          <t>-20,05; 2,78</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 7,61</t>
+          <t>-15,65; 8,27</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,87</t>
+          <t>0,24; 3,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,74</t>
+          <t>-0,87; 2,76</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,21; 27,84</t>
+          <t>5,18; 28,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,96</t>
+          <t>-0,47; 4,08</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,93</t>
+          <t>-3,47; 1,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,94</t>
+          <t>-3,83; 3,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,5</t>
+          <t>0,36; 3,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,37</t>
+          <t>-1,53; 1,32</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,72; 14,33</t>
+          <t>2,97; 15,07</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>1,57; 25,39</t>
+          <t>1,34; 26,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 18,3</t>
+          <t>-5,29; 18,47</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>32,41; 176,22</t>
+          <t>32,11; 190,46</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 15,26</t>
+          <t>-1,59; 15,66</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 3,55</t>
+          <t>-12,13; 3,95</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 14,96</t>
+          <t>-13,48; 14,79</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>2,74; 16,61</t>
+          <t>1,71; 16,6</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 6,64</t>
+          <t>-6,9; 6,24</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>12,29; 68,23</t>
+          <t>13,4; 69,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/PCS12_SP_R3-Clase-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R3-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
